--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_19_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_19_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-339459.4262270483</v>
+        <v>-342355.5245344733</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673425</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13.93890542723724</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>12.27738790031055</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="G2" t="n">
-        <v>13.93890542723724</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>13.93890542723724</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5.401342158599133</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>13.93890542723724</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>13.93890542723724</v>
+        <v>12.27738790031055</v>
       </c>
       <c r="V3" t="n">
-        <v>12.27738790031057</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>13.93890542723724</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>12.27738790031055</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.93890542723724</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>12.27738790031057</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>13.93890542723724</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.93890542723724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,55 +902,55 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>55.26115480377223</v>
       </c>
       <c r="G5" t="n">
-        <v>48.67402515116257</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>48.67402515116256</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>55.26115480377223</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
         <v>55.26115480377223</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="F6" t="n">
-        <v>48.67402515116257</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -993,40 +993,40 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>47.15831191777808</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.515713233384492</v>
+      </c>
+      <c r="T6" t="n">
         <v>55.26115480377223</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>55.26115480377223</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="H7" t="n">
         <v>55.26115480377223</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>42.76279030041251</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>5.911234850750057</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>48.67402515116256</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>123.4979665192309</v>
+        <v>123.4979665192292</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>82.11700196477736</v>
       </c>
       <c r="G8" t="n">
-        <v>13.34131652939027</v>
+        <v>123.4979665192292</v>
       </c>
       <c r="H8" t="n">
-        <v>88.55964663903686</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>26.66000694535968</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4979665192309</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>123.4979665192292</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>123.4979665192309</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1215,16 +1215,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>123.4979665192309</v>
+        <v>123.4979665192292</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>123.4979665192292</v>
       </c>
       <c r="G9" t="n">
-        <v>108.7770089101386</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>34.99970656577526</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>123.4979665192292</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>123.4979665192309</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>123.4979665192309</v>
+        <v>73.77730234436174</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.7770089101386</v>
+        <v>123.4979665192292</v>
       </c>
       <c r="C10" t="n">
-        <v>123.4979665192309</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>123.4979665192309</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>123.4979665192292</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>123.4979665192292</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>31.15548687443344</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>12.4886192508886</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>123.4979665192309</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>65.13290278481497</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>260.5283759769687</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>239.4415781650988</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>30.93007019673394</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>15.07339511606811</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,10 +1622,10 @@
         <v>410.592917841534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>291.2403613834999</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>28.90056660389939</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.6950537740603</v>
+        <v>101.6950537740602</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>202.4786139429425</v>
       </c>
       <c r="U14" t="n">
         <v>250.9688673339484</v>
@@ -1667,13 +1667,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>110.3524419080655</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>268.6829560632016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.8235414765287</v>
       </c>
       <c r="H15" t="n">
-        <v>87.89778431512083</v>
+        <v>87.8977843151208</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853827</v>
+        <v>12.76005920853817</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>124.8757279762149</v>
+        <v>124.8757279762148</v>
       </c>
       <c r="T15" t="n">
         <v>190.0074582735027</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>5.261179572172864</v>
       </c>
       <c r="G16" t="n">
-        <v>2.482178031522294</v>
+        <v>165.8783163942143</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4436781526119</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>187.1986443782762</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>218.9187567628735</v>
@@ -1822,13 +1822,13 @@
         <v>286.2037931948048</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,19 +1844,19 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684695</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
         <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894985</v>
       </c>
       <c r="G17" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
         <v>255.2416659947559</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T17" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U17" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V17" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
         <v>354.6277363038396</v>
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C19" t="n">
         <v>135.6366187464139</v>
@@ -2020,7 +2020,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U19" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V19" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W19" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D20" t="n">
         <v>323.072839268469</v>
@@ -2090,10 +2090,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G20" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
         <v>255.2416659947559</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295172</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W20" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X20" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
         <v>354.6277363038396</v>
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
         <v>135.6366187464139</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453184</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221574</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2293,13 +2293,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V22" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W22" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
         <v>194.0994530368232</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V25" t="n">
         <v>220.5274409716141</v>
@@ -2542,7 +2542,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295179</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
@@ -2792,7 +2792,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D29" t="n">
         <v>323.072839268469</v>
@@ -2801,10 +2801,10 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H29" t="n">
         <v>255.2416659947559</v>
@@ -2840,22 +2840,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U29" t="n">
         <v>219.3243840645688</v>
       </c>
       <c r="V29" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y29" t="n">
         <v>354.6277363038396</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C31" t="n">
         <v>135.6366187464139</v>
@@ -2956,7 +2956,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943565</v>
       </c>
       <c r="F31" t="n">
         <v>113.8108456707173</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453008</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221603</v>
+        <v>42.04747230221575</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
@@ -3004,13 +3004,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X31" t="n">
         <v>194.0994530368232</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
@@ -3266,7 +3266,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
         <v>323.072839268469</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
@@ -3332,7 +3332,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="36">
@@ -3430,10 +3430,10 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G37" t="n">
         <v>134.0758985510282</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424825</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
         <v>254.5831063612652</v>
@@ -3490,7 +3490,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038391</v>
       </c>
     </row>
     <row r="39">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3715,7 +3715,7 @@
         <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
         <v>220.5274409716141</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295184</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T41" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038391</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3901,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G43" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139452782</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221585</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
         <v>254.5831063612652</v>
@@ -3961,10 +3961,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3974,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D44" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E44" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F44" t="n">
         <v>375.2658433894975</v>
@@ -3992,7 +3992,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H44" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295186</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
@@ -4043,7 +4043,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y44" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4135,25 @@
         <v>148.2217778297234</v>
       </c>
       <c r="C46" t="n">
-        <v>135.636618746414</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D46" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E46" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F46" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G46" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H46" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139452859</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221586</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S46" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
         <v>186.4872700401421</v>
@@ -4198,7 +4198,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
         <v>186.9744509998809</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.22001808689203</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="C2" t="n">
-        <v>36.22001808689203</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="D2" t="n">
-        <v>22.14031563513724</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="E2" t="n">
-        <v>22.14031563513724</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="F2" t="n">
-        <v>15.19481488593377</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="G2" t="n">
-        <v>1.11511243417898</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="H2" t="n">
-        <v>1.11511243417898</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="I2" t="n">
-        <v>1.11511243417898</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="J2" t="n">
-        <v>1.11511243417898</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="K2" t="n">
-        <v>1.11511243417898</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="L2" t="n">
-        <v>1.11511243417898</v>
+        <v>5.317632192006817</v>
       </c>
       <c r="M2" t="n">
-        <v>14.91462880714385</v>
+        <v>14.35707259005435</v>
       </c>
       <c r="N2" t="n">
-        <v>28.71414518010872</v>
+        <v>28.15658896301921</v>
       </c>
       <c r="O2" t="n">
-        <v>42.5136615530736</v>
+        <v>41.95610533598406</v>
       </c>
       <c r="P2" t="n">
-        <v>42.5136615530736</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="Q2" t="n">
-        <v>55.75562170894898</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="R2" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="S2" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="T2" t="n">
-        <v>36.22001808689203</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="U2" t="n">
-        <v>36.22001808689203</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="V2" t="n">
-        <v>36.22001808689203</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="W2" t="n">
-        <v>36.22001808689203</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="X2" t="n">
-        <v>36.22001808689203</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="Y2" t="n">
-        <v>36.22001808689203</v>
+        <v>41.67591925719414</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.11511243417898</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="C3" t="n">
-        <v>1.11511243417898</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="D3" t="n">
-        <v>1.11511243417898</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="E3" t="n">
-        <v>1.11511243417898</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="F3" t="n">
-        <v>1.11511243417898</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="G3" t="n">
-        <v>1.11511243417898</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="H3" t="n">
-        <v>1.11511243417898</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="I3" t="n">
-        <v>1.11511243417898</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="J3" t="n">
-        <v>1.11511243417898</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="K3" t="n">
-        <v>1.11511243417898</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="L3" t="n">
-        <v>14.91462880714385</v>
+        <v>14.91462880714383</v>
       </c>
       <c r="M3" t="n">
-        <v>22.84122271046065</v>
+        <v>28.71414518010869</v>
       </c>
       <c r="N3" t="n">
-        <v>36.64073908342552</v>
+        <v>41.95610533598406</v>
       </c>
       <c r="O3" t="n">
-        <v>50.4402554563904</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="P3" t="n">
-        <v>55.75562170894898</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.75562170894898</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="R3" t="n">
-        <v>55.75562170894898</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="S3" t="n">
-        <v>55.75562170894898</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="T3" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="U3" t="n">
-        <v>27.5962168054394</v>
+        <v>43.35421978944331</v>
       </c>
       <c r="V3" t="n">
-        <v>15.19481488593377</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="W3" t="n">
-        <v>15.19481488593377</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="X3" t="n">
-        <v>1.11511243417898</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.11511243417898</v>
+        <v>15.19481488593376</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.11511243417898</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="C4" t="n">
-        <v>1.11511243417898</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="D4" t="n">
-        <v>1.11511243417898</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="E4" t="n">
-        <v>1.11511243417898</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="F4" t="n">
-        <v>1.11511243417898</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="G4" t="n">
-        <v>1.11511243417898</v>
+        <v>41.67591925719414</v>
       </c>
       <c r="H4" t="n">
-        <v>1.11511243417898</v>
+        <v>29.27451733768853</v>
       </c>
       <c r="I4" t="n">
-        <v>1.11511243417898</v>
+        <v>15.19481488593376</v>
       </c>
       <c r="J4" t="n">
-        <v>1.11511243417898</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="K4" t="n">
-        <v>14.91462880714385</v>
+        <v>1.115112434178978</v>
       </c>
       <c r="L4" t="n">
-        <v>14.91462880714385</v>
+        <v>14.91462880714383</v>
       </c>
       <c r="M4" t="n">
-        <v>28.15658896301923</v>
+        <v>14.91462880714383</v>
       </c>
       <c r="N4" t="n">
-        <v>41.95610533598411</v>
+        <v>28.15658896301921</v>
       </c>
       <c r="O4" t="n">
-        <v>55.75562170894898</v>
+        <v>41.95610533598406</v>
       </c>
       <c r="P4" t="n">
-        <v>55.75562170894898</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="R4" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="S4" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="T4" t="n">
-        <v>41.67591925719419</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="U4" t="n">
-        <v>29.27451733768856</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="V4" t="n">
-        <v>29.27451733768856</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="W4" t="n">
-        <v>15.19481488593377</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="X4" t="n">
-        <v>15.19481488593377</v>
+        <v>55.75562170894892</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.11511243417898</v>
+        <v>55.75562170894892</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>221.0446192150889</v>
+        <v>116.059588957579</v>
       </c>
       <c r="C5" t="n">
-        <v>221.0446192150889</v>
+        <v>116.059588957579</v>
       </c>
       <c r="D5" t="n">
-        <v>221.0446192150889</v>
+        <v>116.059588957579</v>
       </c>
       <c r="E5" t="n">
-        <v>165.2252709284503</v>
+        <v>116.059588957579</v>
       </c>
       <c r="F5" t="n">
-        <v>109.4059226418117</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="G5" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="H5" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="I5" t="n">
         <v>4.420892384301778</v>
@@ -4580,7 +4580,7 @@
         <v>124.2688000368025</v>
       </c>
       <c r="O5" t="n">
-        <v>178.977343292537</v>
+        <v>166.3360759593544</v>
       </c>
       <c r="P5" t="n">
         <v>221.0446192150889</v>
@@ -4592,25 +4592,25 @@
         <v>221.0446192150889</v>
       </c>
       <c r="S5" t="n">
-        <v>221.0446192150889</v>
+        <v>171.8789372442176</v>
       </c>
       <c r="T5" t="n">
-        <v>221.0446192150889</v>
+        <v>171.8789372442176</v>
       </c>
       <c r="U5" t="n">
-        <v>221.0446192150889</v>
+        <v>116.059588957579</v>
       </c>
       <c r="V5" t="n">
-        <v>221.0446192150889</v>
+        <v>116.059588957579</v>
       </c>
       <c r="W5" t="n">
-        <v>221.0446192150889</v>
+        <v>116.059588957579</v>
       </c>
       <c r="X5" t="n">
-        <v>221.0446192150889</v>
+        <v>116.059588957579</v>
       </c>
       <c r="Y5" t="n">
-        <v>221.0446192150889</v>
+        <v>116.059588957579</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.4059226418117</v>
+        <v>116.059588957579</v>
       </c>
       <c r="C6" t="n">
-        <v>109.4059226418117</v>
+        <v>116.059588957579</v>
       </c>
       <c r="D6" t="n">
-        <v>109.4059226418117</v>
+        <v>60.2402406709404</v>
       </c>
       <c r="E6" t="n">
-        <v>109.4059226418117</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="F6" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="G6" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="H6" t="n">
-        <v>60.2402406709404</v>
+        <v>4.420892384301778</v>
       </c>
       <c r="I6" t="n">
         <v>4.420892384301778</v>
@@ -4668,28 +4668,28 @@
         <v>221.0446192150889</v>
       </c>
       <c r="R6" t="n">
-        <v>221.0446192150889</v>
+        <v>173.4099607122828</v>
       </c>
       <c r="S6" t="n">
-        <v>165.2252709284503</v>
+        <v>171.8789372442176</v>
       </c>
       <c r="T6" t="n">
-        <v>165.2252709284503</v>
+        <v>116.059588957579</v>
       </c>
       <c r="U6" t="n">
-        <v>165.2252709284503</v>
+        <v>116.059588957579</v>
       </c>
       <c r="V6" t="n">
-        <v>165.2252709284503</v>
+        <v>116.059588957579</v>
       </c>
       <c r="W6" t="n">
-        <v>165.2252709284503</v>
+        <v>116.059588957579</v>
       </c>
       <c r="X6" t="n">
-        <v>165.2252709284503</v>
+        <v>116.059588957579</v>
       </c>
       <c r="Y6" t="n">
-        <v>165.2252709284503</v>
+        <v>116.059588957579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.2402406709404</v>
+        <v>215.073674921402</v>
       </c>
       <c r="C7" t="n">
-        <v>60.2402406709404</v>
+        <v>215.073674921402</v>
       </c>
       <c r="D7" t="n">
-        <v>60.2402406709404</v>
+        <v>159.2543266347634</v>
       </c>
       <c r="E7" t="n">
-        <v>60.2402406709404</v>
+        <v>159.2543266347634</v>
       </c>
       <c r="F7" t="n">
-        <v>60.2402406709404</v>
+        <v>159.2543266347634</v>
       </c>
       <c r="G7" t="n">
-        <v>60.2402406709404</v>
+        <v>103.4349783481248</v>
       </c>
       <c r="H7" t="n">
-        <v>4.420892384301778</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="I7" t="n">
-        <v>4.420892384301778</v>
+        <v>47.61563006148614</v>
       </c>
       <c r="J7" t="n">
         <v>4.420892384301778</v>
       </c>
       <c r="K7" t="n">
+        <v>4.420892384301778</v>
+      </c>
+      <c r="L7" t="n">
         <v>59.12943564003628</v>
-      </c>
-      <c r="L7" t="n">
-        <v>113.8379788957708</v>
       </c>
       <c r="M7" t="n">
         <v>113.8379788957708</v>
       </c>
       <c r="N7" t="n">
-        <v>113.8379788957708</v>
+        <v>166.3360759593544</v>
       </c>
       <c r="O7" t="n">
-        <v>168.5465221515053</v>
+        <v>221.0446192150889</v>
       </c>
       <c r="P7" t="n">
         <v>221.0446192150889</v>
@@ -4747,28 +4747,28 @@
         <v>221.0446192150889</v>
       </c>
       <c r="R7" t="n">
-        <v>221.0446192150889</v>
+        <v>215.073674921402</v>
       </c>
       <c r="S7" t="n">
-        <v>221.0446192150889</v>
+        <v>215.073674921402</v>
       </c>
       <c r="T7" t="n">
-        <v>221.0446192150889</v>
+        <v>215.073674921402</v>
       </c>
       <c r="U7" t="n">
-        <v>171.8789372442176</v>
+        <v>215.073674921402</v>
       </c>
       <c r="V7" t="n">
-        <v>171.8789372442176</v>
+        <v>215.073674921402</v>
       </c>
       <c r="W7" t="n">
-        <v>171.8789372442176</v>
+        <v>215.073674921402</v>
       </c>
       <c r="X7" t="n">
-        <v>116.059588957579</v>
+        <v>215.073674921402</v>
       </c>
       <c r="Y7" t="n">
-        <v>60.2402406709404</v>
+        <v>215.073674921402</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>244.5010246239319</v>
+        <v>342.3171454056148</v>
       </c>
       <c r="C8" t="n">
-        <v>244.5010246239319</v>
+        <v>342.3171454056148</v>
       </c>
       <c r="D8" t="n">
-        <v>119.755603897436</v>
+        <v>217.5717246791207</v>
       </c>
       <c r="E8" t="n">
-        <v>119.755603897436</v>
+        <v>217.5717246791207</v>
       </c>
       <c r="F8" t="n">
-        <v>112.8101031482325</v>
+        <v>134.6252580480325</v>
       </c>
       <c r="G8" t="n">
-        <v>99.33402584581813</v>
+        <v>9.879837321538334</v>
       </c>
       <c r="H8" t="n">
-        <v>9.879837321538476</v>
+        <v>9.879837321538334</v>
       </c>
       <c r="I8" t="n">
-        <v>9.879837321538476</v>
+        <v>9.879837321538334</v>
       </c>
       <c r="J8" t="n">
-        <v>9.879837321538476</v>
+        <v>9.879837321538334</v>
       </c>
       <c r="K8" t="n">
-        <v>38.99598845528578</v>
+        <v>38.99598845528482</v>
       </c>
       <c r="L8" t="n">
-        <v>112.0189104208384</v>
+        <v>112.0189104208363</v>
       </c>
       <c r="M8" t="n">
-        <v>224.9404185623647</v>
+        <v>224.9404185623613</v>
       </c>
       <c r="N8" t="n">
-        <v>344.3029231402559</v>
+        <v>344.3029231402511</v>
       </c>
       <c r="O8" t="n">
-        <v>443.6782902435726</v>
+        <v>443.6782902435666</v>
       </c>
       <c r="P8" t="n">
-        <v>493.9918660769238</v>
+        <v>493.9918660769167</v>
       </c>
       <c r="Q8" t="n">
-        <v>493.9918660769238</v>
+        <v>493.9918660769167</v>
       </c>
       <c r="R8" t="n">
-        <v>493.9918660769238</v>
+        <v>467.0625661321089</v>
       </c>
       <c r="S8" t="n">
-        <v>369.2464453504278</v>
+        <v>467.0625661321089</v>
       </c>
       <c r="T8" t="n">
-        <v>369.2464453504278</v>
+        <v>342.3171454056148</v>
       </c>
       <c r="U8" t="n">
-        <v>369.2464453504278</v>
+        <v>342.3171454056148</v>
       </c>
       <c r="V8" t="n">
-        <v>244.5010246239319</v>
+        <v>342.3171454056148</v>
       </c>
       <c r="W8" t="n">
-        <v>244.5010246239319</v>
+        <v>342.3171454056148</v>
       </c>
       <c r="X8" t="n">
-        <v>244.5010246239319</v>
+        <v>342.3171454056148</v>
       </c>
       <c r="Y8" t="n">
-        <v>244.5010246239319</v>
+        <v>342.3171454056148</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>244.5010246239319</v>
+        <v>259.3706787745266</v>
       </c>
       <c r="C9" t="n">
-        <v>244.5010246239319</v>
+        <v>259.3706787745266</v>
       </c>
       <c r="D9" t="n">
-        <v>119.755603897436</v>
+        <v>134.6252580480325</v>
       </c>
       <c r="E9" t="n">
-        <v>119.755603897436</v>
+        <v>134.6252580480325</v>
       </c>
       <c r="F9" t="n">
-        <v>119.755603897436</v>
+        <v>9.879837321538334</v>
       </c>
       <c r="G9" t="n">
-        <v>9.879837321538476</v>
+        <v>9.879837321538334</v>
       </c>
       <c r="H9" t="n">
-        <v>9.879837321538476</v>
+        <v>9.879837321538334</v>
       </c>
       <c r="I9" t="n">
-        <v>9.879837321538476</v>
+        <v>9.879837321538334</v>
       </c>
       <c r="J9" t="n">
-        <v>9.879837321538476</v>
+        <v>9.879837321538334</v>
       </c>
       <c r="K9" t="n">
-        <v>41.18578105650951</v>
+        <v>41.18578105650872</v>
       </c>
       <c r="L9" t="n">
-        <v>77.68079595846284</v>
+        <v>129.6030269567457</v>
       </c>
       <c r="M9" t="n">
-        <v>199.9437828125015</v>
+        <v>251.8660138107825</v>
       </c>
       <c r="N9" t="n">
-        <v>322.2067696665401</v>
+        <v>322.2067696665347</v>
       </c>
       <c r="O9" t="n">
-        <v>428.2310777861209</v>
+        <v>428.2310777861146</v>
       </c>
       <c r="P9" t="n">
-        <v>493.9918660769238</v>
+        <v>493.9918660769167</v>
       </c>
       <c r="Q9" t="n">
-        <v>493.9918660769238</v>
+        <v>493.9918660769167</v>
       </c>
       <c r="R9" t="n">
-        <v>493.9918660769238</v>
+        <v>458.6386271215882</v>
       </c>
       <c r="S9" t="n">
-        <v>493.9918660769238</v>
+        <v>333.893206395094</v>
       </c>
       <c r="T9" t="n">
-        <v>493.9918660769238</v>
+        <v>333.893206395094</v>
       </c>
       <c r="U9" t="n">
-        <v>369.2464453504278</v>
+        <v>333.893206395094</v>
       </c>
       <c r="V9" t="n">
-        <v>369.2464453504278</v>
+        <v>333.893206395094</v>
       </c>
       <c r="W9" t="n">
-        <v>369.2464453504278</v>
+        <v>333.893206395094</v>
       </c>
       <c r="X9" t="n">
-        <v>244.5010246239319</v>
+        <v>259.3706787745266</v>
       </c>
       <c r="Y9" t="n">
-        <v>244.5010246239319</v>
+        <v>259.3706787745266</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>259.3706787745303</v>
+        <v>290.8408675365806</v>
       </c>
       <c r="C10" t="n">
-        <v>134.6252580480344</v>
+        <v>290.8408675365806</v>
       </c>
       <c r="D10" t="n">
-        <v>9.879837321538476</v>
+        <v>290.8408675365806</v>
       </c>
       <c r="E10" t="n">
-        <v>9.879837321538476</v>
+        <v>290.8408675365806</v>
       </c>
       <c r="F10" t="n">
-        <v>9.879837321538476</v>
+        <v>166.0954468100865</v>
       </c>
       <c r="G10" t="n">
-        <v>9.879837321538476</v>
+        <v>41.35002608359231</v>
       </c>
       <c r="H10" t="n">
-        <v>9.879837321538476</v>
+        <v>41.35002608359231</v>
       </c>
       <c r="I10" t="n">
-        <v>9.879837321538476</v>
+        <v>41.35002608359231</v>
       </c>
       <c r="J10" t="n">
-        <v>9.879837321538476</v>
+        <v>9.879837321538334</v>
       </c>
       <c r="K10" t="n">
-        <v>89.03061886826234</v>
+        <v>89.0306188682618</v>
       </c>
       <c r="L10" t="n">
-        <v>211.293605722301</v>
+        <v>211.2936057222987</v>
       </c>
       <c r="M10" t="n">
-        <v>333.5565925763396</v>
+        <v>269.0762680109922</v>
       </c>
       <c r="N10" t="n">
-        <v>340.4388924541969</v>
+        <v>391.3392548650291</v>
       </c>
       <c r="O10" t="n">
-        <v>391.3392548650357</v>
+        <v>391.3392548650291</v>
       </c>
       <c r="P10" t="n">
-        <v>493.9918660769238</v>
+        <v>493.9918660769167</v>
       </c>
       <c r="Q10" t="n">
-        <v>493.9918660769238</v>
+        <v>481.3770991568272</v>
       </c>
       <c r="R10" t="n">
-        <v>493.9918660769238</v>
+        <v>481.3770991568272</v>
       </c>
       <c r="S10" t="n">
-        <v>493.9918660769238</v>
+        <v>481.3770991568272</v>
       </c>
       <c r="T10" t="n">
-        <v>369.2464453504278</v>
+        <v>481.3770991568272</v>
       </c>
       <c r="U10" t="n">
-        <v>369.2464453504278</v>
+        <v>415.5862882630747</v>
       </c>
       <c r="V10" t="n">
-        <v>369.2464453504278</v>
+        <v>415.5862882630747</v>
       </c>
       <c r="W10" t="n">
-        <v>369.2464453504278</v>
+        <v>415.5862882630747</v>
       </c>
       <c r="X10" t="n">
-        <v>369.2464453504278</v>
+        <v>415.5862882630747</v>
       </c>
       <c r="Y10" t="n">
-        <v>369.2464453504278</v>
+        <v>415.5862882630747</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1590.416669135309</v>
+        <v>1811.57974610909</v>
       </c>
       <c r="C11" t="n">
-        <v>1590.416669135309</v>
+        <v>1811.57974610909</v>
       </c>
       <c r="D11" t="n">
-        <v>1232.150970528559</v>
+        <v>1453.314047502339</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528559</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389512</v>
+        <v>779.1681669784197</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839476</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927148</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
         <v>1573.776739001389</v>
@@ -5054,7 +5054,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296687</v>
@@ -5078,13 +5078,13 @@
         <v>2961.784676410103</v>
       </c>
       <c r="W11" t="n">
-        <v>2609.016021139989</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X11" t="n">
-        <v>2367.155841175243</v>
+        <v>2588.318918149023</v>
       </c>
       <c r="Y11" t="n">
-        <v>1977.016509199431</v>
+        <v>2198.179586173212</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031483</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,34 +5136,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>922.6774975139006</v>
+        <v>923.9108438165262</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>754.9746608886193</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>604.8580214762835</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>456.9449278938904</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H13" t="n">
         <v>163.8377936138381</v>
@@ -5200,16 +5200,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
@@ -5218,31 +5218,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T13" t="n">
-        <v>1614.535711524631</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U13" t="n">
-        <v>1614.535711524631</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V13" t="n">
-        <v>1614.535711524631</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W13" t="n">
-        <v>1325.11854148767</v>
+        <v>1348.774511177175</v>
       </c>
       <c r="X13" t="n">
-        <v>1325.11854148767</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y13" t="n">
-        <v>1104.32596234414</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1655.007551392011</v>
+        <v>2336.647924733508</v>
       </c>
       <c r="C14" t="n">
-        <v>1286.045034451599</v>
+        <v>1967.685407793097</v>
       </c>
       <c r="D14" t="n">
-        <v>1286.045034451599</v>
+        <v>1609.419709186346</v>
       </c>
       <c r="E14" t="n">
-        <v>900.2567818533551</v>
+        <v>1223.631456588102</v>
       </c>
       <c r="F14" t="n">
-        <v>489.2708770637474</v>
+        <v>812.6455517984944</v>
       </c>
       <c r="G14" t="n">
-        <v>74.53055601169292</v>
+        <v>397.9052307464398</v>
       </c>
       <c r="H14" t="n">
-        <v>74.53055601169292</v>
+        <v>103.7230475307833</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169292</v>
+        <v>74.53055601169305</v>
       </c>
       <c r="J14" t="n">
-        <v>291.0377674773517</v>
+        <v>291.0377674773526</v>
       </c>
       <c r="K14" t="n">
-        <v>666.2644720055987</v>
+        <v>666.2644720055996</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.668140645699</v>
+        <v>1168.6681406457</v>
       </c>
       <c r="M14" t="n">
-        <v>1759.358462275285</v>
+        <v>1759.358462275287</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.22057923539</v>
+        <v>2364.220579235393</v>
       </c>
       <c r="O14" t="n">
-        <v>2922.039463163072</v>
+        <v>2922.039463163076</v>
       </c>
       <c r="P14" t="n">
-        <v>3363.6239741404</v>
+        <v>3363.623974140406</v>
       </c>
       <c r="Q14" t="n">
-        <v>3647.06280504951</v>
+        <v>3647.062805049516</v>
       </c>
       <c r="R14" t="n">
-        <v>3726.527800584646</v>
+        <v>3726.527800584652</v>
       </c>
       <c r="S14" t="n">
-        <v>3623.805524045191</v>
+        <v>3623.805524045197</v>
       </c>
       <c r="T14" t="n">
-        <v>3623.805524045191</v>
+        <v>3419.281671577578</v>
       </c>
       <c r="U14" t="n">
-        <v>3370.301617647263</v>
+        <v>3165.777765179651</v>
       </c>
       <c r="V14" t="n">
-        <v>3039.238730303693</v>
+        <v>2834.71487783608</v>
       </c>
       <c r="W14" t="n">
-        <v>2686.470075033579</v>
+        <v>2723.24776479763</v>
       </c>
       <c r="X14" t="n">
-        <v>2313.004316772499</v>
+        <v>2723.24776479763</v>
       </c>
       <c r="Y14" t="n">
-        <v>2041.607391456133</v>
+        <v>2723.24776479763</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>458.9250988334825</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3905408603675</v>
+        <v>312.3905408603674</v>
       </c>
       <c r="G15" t="n">
         <v>176.2051454295304</v>
       </c>
       <c r="H15" t="n">
-        <v>87.41950470718612</v>
+        <v>87.41950470718615</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169292</v>
+        <v>74.53055601169305</v>
       </c>
       <c r="J15" t="n">
-        <v>184.6629209807615</v>
+        <v>74.53055601169305</v>
       </c>
       <c r="K15" t="n">
-        <v>451.0514990628281</v>
+        <v>170.1112445399374</v>
       </c>
       <c r="L15" t="n">
-        <v>855.5663578417081</v>
+        <v>574.626103318818</v>
       </c>
       <c r="M15" t="n">
-        <v>1055.360493234719</v>
+        <v>1066.032731952774</v>
       </c>
       <c r="N15" t="n">
-        <v>1574.181838018304</v>
+        <v>1584.854076736359</v>
       </c>
       <c r="O15" t="n">
-        <v>2026.582213319537</v>
+        <v>2037.254452037593</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.340332577117</v>
+        <v>2381.012571295174</v>
       </c>
       <c r="Q15" t="n">
-        <v>2550.214335272918</v>
+        <v>2560.886573990975</v>
       </c>
       <c r="R15" t="n">
         <v>2560.886573990975</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>688.8963266657768</v>
+        <v>395.3118273379118</v>
       </c>
       <c r="C16" t="n">
-        <v>519.9601437378699</v>
+        <v>395.3118273379118</v>
       </c>
       <c r="D16" t="n">
-        <v>369.8435043255341</v>
+        <v>395.3118273379118</v>
       </c>
       <c r="E16" t="n">
-        <v>221.9304107431416</v>
+        <v>247.3987337555185</v>
       </c>
       <c r="F16" t="n">
-        <v>221.9304107431416</v>
+        <v>242.0844109553439</v>
       </c>
       <c r="G16" t="n">
-        <v>219.4231602062504</v>
+        <v>74.53055601169305</v>
       </c>
       <c r="H16" t="n">
-        <v>74.53055601169292</v>
+        <v>74.53055601169305</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169292</v>
+        <v>74.53055601169305</v>
       </c>
       <c r="J16" t="n">
-        <v>129.976586552547</v>
+        <v>129.9765865525473</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923168</v>
+        <v>350.9282837923174</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553099</v>
+        <v>689.1968198553109</v>
       </c>
       <c r="M16" t="n">
-        <v>1056.242685479732</v>
+        <v>1056.242685479733</v>
       </c>
       <c r="N16" t="n">
-        <v>1419.995637229306</v>
+        <v>1419.995637229308</v>
       </c>
       <c r="O16" t="n">
-        <v>1739.964067776857</v>
+        <v>1739.964067776858</v>
       </c>
       <c r="P16" t="n">
-        <v>1990.231654135872</v>
+        <v>1990.231654135874</v>
       </c>
       <c r="Q16" t="n">
-        <v>2080.068878389593</v>
+        <v>2080.068878389595</v>
       </c>
       <c r="R16" t="n">
-        <v>2080.068878389593</v>
+        <v>2080.068878389595</v>
       </c>
       <c r="S16" t="n">
-        <v>1890.979338613556</v>
+        <v>2080.068878389595</v>
       </c>
       <c r="T16" t="n">
-        <v>1669.84928127732</v>
+        <v>1858.93882105336</v>
       </c>
       <c r="U16" t="n">
-        <v>1380.754540676507</v>
+        <v>1569.844080452547</v>
       </c>
       <c r="V16" t="n">
-        <v>1380.754540676507</v>
+        <v>1315.15959224666</v>
       </c>
       <c r="W16" t="n">
-        <v>1091.337370639547</v>
+        <v>1025.742422209699</v>
       </c>
       <c r="X16" t="n">
-        <v>1091.337370639547</v>
+        <v>797.7528713116817</v>
       </c>
       <c r="Y16" t="n">
-        <v>870.5447914960165</v>
+        <v>576.9602921681516</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J17" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889757</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437416</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501805</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J18" t="n">
-        <v>216.5575109835859</v>
+        <v>216.557510983586</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334502</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L18" t="n">
-        <v>879.6062951712937</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M18" t="n">
-        <v>1428.524759781583</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502096</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039798</v>
+        <v>501.6849958039801</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G19" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897928</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J19" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
         <v>1709.719201354973</v>
@@ -5689,22 +5689,22 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
         <v>1664.992195357083</v>
@@ -5738,7 +5738,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
@@ -5753,7 +5753,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
@@ -5762,16 +5762,16 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R20" t="n">
         <v>4249.020448755811</v>
@@ -5783,19 +5783,19 @@
         <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="21">
@@ -5823,7 +5823,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
         <v>84.98040897511622</v>
@@ -5832,25 +5832,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>354.3572725988136</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>808.1559021931411</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>1357.07436680343</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q21" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502112</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C22" t="n">
-        <v>735.855734147773</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609059</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039815</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315398</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749457</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897949</v>
+        <v>140.0574709897933</v>
       </c>
       <c r="I22" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902789</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5941,7 +5941,7 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237503</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
         <v>1664.992195357084</v>
@@ -5950,10 +5950,10 @@
         <v>1407.504522645592</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073044</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H23" t="n">
         <v>84.98040897511622</v>
@@ -5990,25 +5990,25 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050965</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R23" t="n">
         <v>4249.020448755811</v>
@@ -6075,19 +6075,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M24" t="n">
-        <v>973.3971899277776</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
         <v>140.0574709897931</v>
@@ -6145,10 +6145,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L25" t="n">
         <v>857.3827676902786</v>
@@ -6169,25 +6169,25 @@
         <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T25" t="n">
         <v>2144.901839127668</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.581387254981</v>
@@ -6212,7 +6212,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796674</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G26" t="n">
         <v>342.8002736162838</v>
@@ -6224,10 +6224,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
@@ -6236,13 +6236,13 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
         <v>4142.907144767228</v>
@@ -6260,7 +6260,7 @@
         <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437415</v>
@@ -6315,16 +6315,16 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502101</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E28" t="n">
         <v>501.6849958039802</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H28" t="n">
         <v>140.0574709897931</v>
@@ -6385,10 +6385,10 @@
         <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443614</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6397,22 +6397,22 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
         <v>1887.747186237502</v>
@@ -6424,7 +6424,7 @@
         <v>1407.504522645591</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
         <v>1022.581387254981</v>
@@ -6491,13 +6491,13 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
         <v>3175.879079437414</v>
@@ -6549,19 +6549,19 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M30" t="n">
-        <v>1059.51735386646</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N30" t="n">
-        <v>1637.372701792863</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O30" t="n">
-        <v>2143.777656741113</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502111</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477729</v>
       </c>
       <c r="D31" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609058</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039799</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F31" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G31" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H31" t="n">
         <v>140.0574709897931</v>
@@ -6619,13 +6619,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M31" t="n">
         <v>1285.552079040893</v>
@@ -6634,16 +6634,16 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
         <v>2333.272818966196</v>
@@ -6652,19 +6652,19 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073044</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D32" t="n">
         <v>1458.093420216582</v>
@@ -6698,25 +6698,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L32" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M32" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N32" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P32" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q32" t="n">
         <v>4142.907144767228</v>
@@ -6731,10 +6731,10 @@
         <v>4017.391409283564</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
         <v>3175.879079437414</v>
@@ -6777,25 +6777,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>388.0214583249806</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M33" t="n">
-        <v>936.9399229352697</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
         <v>2555.644190323788</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H34" t="n">
         <v>140.0574709897931</v>
@@ -6856,13 +6856,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443614</v>
+        <v>459.528702044361</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6886,16 +6886,16 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
         <v>1211.444469073042</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943804</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796655</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162819</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511424</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O35" t="n">
         <v>3311.067850233286</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J36" t="n">
-        <v>216.5575109835859</v>
+        <v>165.6257438946549</v>
       </c>
       <c r="K36" t="n">
-        <v>519.5985603334502</v>
+        <v>468.6667932445192</v>
       </c>
       <c r="L36" t="n">
-        <v>973.3971899277776</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N36" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E37" t="n">
         <v>501.68499580398</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315384</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897928</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042782</v>
+        <v>185.1742787042786</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902788</v>
       </c>
       <c r="M37" t="n">
         <v>1285.552079040893</v>
@@ -7108,16 +7108,16 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S37" t="n">
         <v>2333.272818966196</v>
@@ -7129,13 +7129,13 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7157,10 +7157,10 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E38" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796676</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G38" t="n">
         <v>342.8002736162838</v>
@@ -7175,22 +7175,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q38" t="n">
         <v>4142.907144767228</v>
@@ -7263,16 +7263,16 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1637.372701792863</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>2143.777656741113</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="P39" t="n">
-        <v>2530.879212293269</v>
+        <v>2346.796248312508</v>
       </c>
       <c r="Q39" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7318,40 +7318,40 @@
         <v>501.6849958039802</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R40" t="n">
         <v>2487.049233352543</v>
@@ -7360,10 +7360,10 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
         <v>1664.992195357083</v>
@@ -7391,28 +7391,28 @@
         <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796681</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J41" t="n">
         <v>337.4933016076836</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951448</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
@@ -7421,40 +7421,40 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177182</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J42" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>388.0214583249806</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>841.820087919308</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
-        <v>1390.738552529597</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1637.372701792863</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>2143.777656741113</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502086</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477702</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609031</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039785</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315367</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749425</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897908</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J43" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7597,22 +7597,22 @@
         <v>2333.272818966195</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>725.1782574796671</v>
       </c>
       <c r="G44" t="n">
-        <v>342.800273616284</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H44" t="n">
         <v>84.98040897511622</v>
@@ -7646,16 +7646,16 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
         <v>2681.771598889755</v>
@@ -7673,7 +7673,7 @@
         <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T44" t="n">
         <v>4017.391409283564</v>
@@ -7731,22 +7731,22 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>808.1559021931415</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>1357.074366803431</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.862419750209</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477707</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609035</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039789</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315371</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749429</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0574709897916</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902779</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
         <v>2087.878830313935</v>
@@ -7825,31 +7825,31 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S46" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X46" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y46" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
   </sheetData>
@@ -7976,16 +7976,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>65.29236085646849</v>
+        <v>65.29236085646851</v>
       </c>
       <c r="K2" t="n">
-        <v>46.60529509404796</v>
+        <v>46.60529509404799</v>
       </c>
       <c r="L2" t="n">
-        <v>20.54348275905164</v>
+        <v>24.78845221140305</v>
       </c>
       <c r="M2" t="n">
-        <v>4.808157550421527</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>14.2467531491298</v>
       </c>
       <c r="P2" t="n">
-        <v>35.11223672545285</v>
+        <v>49.05114215269009</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.40288482164061</v>
+        <v>75.02716749247358</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>57.89560904784604</v>
+        <v>57.89560904784605</v>
       </c>
       <c r="K3" t="n">
-        <v>20.00854994078954</v>
+        <v>20.00854994078955</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>46.8343584238816</v>
+        <v>46.83435842388161</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>71.87583075794684</v>
+        <v>57.93692533070961</v>
       </c>
       <c r="L4" t="n">
-        <v>43.93144097118262</v>
+        <v>57.87034639841988</v>
       </c>
       <c r="M4" t="n">
-        <v>56.40406722691952</v>
+        <v>43.02834989775249</v>
       </c>
       <c r="N4" t="n">
-        <v>48.00724248301907</v>
+        <v>47.44405438494888</v>
       </c>
       <c r="O4" t="n">
-        <v>65.92480045234984</v>
+        <v>65.92480045234983</v>
       </c>
       <c r="P4" t="n">
-        <v>63.73743033232117</v>
+        <v>77.6763357595584</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8228,10 +8228,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>16.54957420044005</v>
+        <v>3.780617298235441</v>
       </c>
       <c r="P5" t="n">
-        <v>44.30225529782059</v>
+        <v>57.0712122000252</v>
       </c>
       <c r="Q5" t="n">
         <v>50.01861771953256</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>101.1290019093975</v>
+        <v>45.86784710562524</v>
       </c>
       <c r="L7" t="n">
         <v>83.74833088504644</v>
       </c>
       <c r="M7" t="n">
-        <v>26.74453801706942</v>
+        <v>82.00569282084165</v>
       </c>
       <c r="N7" t="n">
-        <v>18.17171782551226</v>
+        <v>71.20009869781896</v>
       </c>
       <c r="O7" t="n">
         <v>92.56394902735028</v>
       </c>
       <c r="P7" t="n">
-        <v>104.2018818848687</v>
+        <v>51.173501012562</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>14.57275013783033</v>
+        <v>14.57275013783098</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.49428940010301</v>
+        <v>10.49428940010384</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>27.68735636794347</v>
+        <v>27.68735636794385</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.020051474534569</v>
+        <v>6.02005147453508</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>127.5765222805276</v>
+        <v>127.5765222805263</v>
       </c>
       <c r="M10" t="n">
-        <v>124.5070367499867</v>
+        <v>59.37539577489115</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>116.546148460788</v>
       </c>
       <c r="O10" t="n">
-        <v>65.51164995832536</v>
+        <v>14.09714247263003</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.747935129969846e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>121.4019940952931</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>130.2895225133702</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>188.6188790794353</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>203.5112582360267</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>291.2403613834999</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>28.90056660389959</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>202.4786139429426</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>238.8885268093475</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>117.554982592852</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>140.1598684507584</v>
       </c>
       <c r="G16" t="n">
-        <v>163.396138362692</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>143.4436781526118</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434407</v>
+        <v>91.91693778434399</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.30038209396103</v>
+        <v>82.30038209396093</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>187.1986443782762</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-2.486899575160351e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>2.371587015659315e-12</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1.612932010175427e-12</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>949330.9575052662</v>
+        <v>949330.9575052661</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>999925.1087199424</v>
+        <v>999925.1087199432</v>
       </c>
     </row>
     <row r="7">
@@ -26317,25 +26317,25 @@
         <v>307890.6636991061</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="E2" t="n">
         <v>255747.8242281905</v>
       </c>
       <c r="F2" t="n">
-        <v>269546.2291049203</v>
+        <v>269546.2291049206</v>
       </c>
       <c r="G2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="H2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="I2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="J2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="K2" t="n">
         <v>307890.6636991061</v>
@@ -26344,16 +26344,16 @@
         <v>307890.663699106</v>
       </c>
       <c r="M2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991063</v>
       </c>
       <c r="N2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991062</v>
       </c>
       <c r="O2" t="n">
-        <v>307890.6636991064</v>
+        <v>307890.6636991061</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.663699106</v>
+        <v>307890.6636991063</v>
       </c>
     </row>
     <row r="3">
@@ -26366,43 +26366,43 @@
         <v>331580.0723202187</v>
       </c>
       <c r="C3" t="n">
-        <v>65806.79407012099</v>
+        <v>65806.79407012105</v>
       </c>
       <c r="D3" t="n">
-        <v>99167.35190092213</v>
+        <v>99167.35190091998</v>
       </c>
       <c r="E3" t="n">
-        <v>694911.1668181695</v>
+        <v>694911.1668181713</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654203</v>
+        <v>93369.88484654373</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975345</v>
+        <v>143964.0818975331</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3647.030971604062</v>
+        <v>3647.030971604039</v>
       </c>
       <c r="K3" t="n">
         <v>10635.02467754006</v>
       </c>
       <c r="L3" t="n">
-        <v>42558.28479564835</v>
+        <v>42558.28479564784</v>
       </c>
       <c r="M3" t="n">
-        <v>176412.3810436146</v>
+        <v>176412.3810436149</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.1543861315</v>
+        <v>24549.154386132</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.59456875972</v>
+        <v>31434.59456875951</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>329057.6628446897</v>
       </c>
       <c r="D4" t="n">
-        <v>298540.8002205398</v>
+        <v>298540.8002205405</v>
       </c>
       <c r="E4" t="n">
-        <v>12210.1789621407</v>
+        <v>12210.17896214071</v>
       </c>
       <c r="F4" t="n">
-        <v>12262.04654063899</v>
+        <v>12262.046540639</v>
       </c>
       <c r="G4" t="n">
+        <v>43399.53897605925</v>
+      </c>
+      <c r="H4" t="n">
+        <v>43399.53897605925</v>
+      </c>
+      <c r="I4" t="n">
+        <v>43399.53897605925</v>
+      </c>
+      <c r="J4" t="n">
+        <v>43399.53897605931</v>
+      </c>
+      <c r="K4" t="n">
+        <v>43399.53897605931</v>
+      </c>
+      <c r="L4" t="n">
+        <v>43399.53897605928</v>
+      </c>
+      <c r="M4" t="n">
+        <v>43399.53897605936</v>
+      </c>
+      <c r="N4" t="n">
         <v>43399.5389760593</v>
       </c>
-      <c r="H4" t="n">
-        <v>43399.5389760593</v>
-      </c>
-      <c r="I4" t="n">
-        <v>43399.53897605927</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="O4" t="n">
+        <v>43399.53897605934</v>
+      </c>
+      <c r="P4" t="n">
         <v>43399.53897605925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>43399.53897605927</v>
-      </c>
-      <c r="L4" t="n">
-        <v>43399.53897605927</v>
-      </c>
-      <c r="M4" t="n">
-        <v>43399.53897605924</v>
-      </c>
-      <c r="N4" t="n">
-        <v>43399.53897605927</v>
-      </c>
-      <c r="O4" t="n">
-        <v>43399.53897605922</v>
-      </c>
-      <c r="P4" t="n">
-        <v>43399.53897605918</v>
       </c>
     </row>
     <row r="5">
@@ -26473,40 +26473,40 @@
         <v>45639.02497530233</v>
       </c>
       <c r="D5" t="n">
-        <v>51772.57201481674</v>
+        <v>51772.57201481659</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390696</v>
+        <v>82183.39720390709</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="I5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="J5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="K5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="L5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="M5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="N5" t="n">
         <v>95106.43410215528</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="P5" t="n">
         <v>95106.43410215527</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-414093.3487550347</v>
+        <v>-414093.3487550348</v>
       </c>
       <c r="C6" t="n">
         <v>-132612.8181910069</v>
       </c>
       <c r="D6" t="n">
-        <v>-141590.0604371727</v>
+        <v>-141590.0604371708</v>
       </c>
       <c r="E6" t="n">
-        <v>-525679.8621135131</v>
+        <v>-526027.4810433208</v>
       </c>
       <c r="F6" t="n">
-        <v>81730.90051383237</v>
+        <v>81475.27094986955</v>
       </c>
       <c r="G6" t="n">
-        <v>25420.60872335699</v>
+        <v>25420.60872335844</v>
       </c>
       <c r="H6" t="n">
-        <v>169384.6906208912</v>
+        <v>169384.6906208916</v>
       </c>
       <c r="I6" t="n">
         <v>169384.6906208916</v>
@@ -26549,19 +26549,19 @@
         <v>158749.6659433515</v>
       </c>
       <c r="L6" t="n">
-        <v>126826.4058252431</v>
+        <v>126826.4058252436</v>
       </c>
       <c r="M6" t="n">
-        <v>-7027.690422723041</v>
+        <v>-7027.690422723201</v>
       </c>
       <c r="N6" t="n">
-        <v>144835.53623476</v>
+        <v>144835.5362347596</v>
       </c>
       <c r="O6" t="n">
-        <v>137950.0960521321</v>
+        <v>137950.0960521319</v>
       </c>
       <c r="P6" t="n">
-        <v>169384.6906208916</v>
+        <v>169384.6906208917</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H2" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L2" t="n">
         <v>31.61020235221395</v>
       </c>
       <c r="M2" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N2" t="n">
         <v>31.61020235221396</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="3">
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.2532318645833</v>
+        <v>339.2532318645832</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
       </c>
       <c r="D3" t="n">
-        <v>487.9034702040137</v>
+        <v>487.9034702040119</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1171.567643808273</v>
+        <v>1171.567643808274</v>
       </c>
       <c r="G3" t="n">
         <v>1278.159870620123</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.93890542723724</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="C4" t="n">
         <v>55.26115480377223</v>
       </c>
       <c r="D4" t="n">
-        <v>123.4979665192309</v>
+        <v>123.4979665192292</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>931.6319501461614</v>
+        <v>931.631950146163</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26820,7 +26820,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="M4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="N4" t="n">
         <v>1062.255112188953</v>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>-3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221399</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.197442310920451e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>-7.815970093361102e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.2532318645833</v>
+        <v>339.2532318645832</v>
       </c>
       <c r="C3" t="n">
-        <v>57.60671140298479</v>
+        <v>57.60671140298484</v>
       </c>
       <c r="D3" t="n">
-        <v>91.04352693644569</v>
+        <v>91.04352693644381</v>
       </c>
       <c r="E3" t="n">
-        <v>601.8732303892848</v>
+        <v>601.8732303892864</v>
       </c>
       <c r="F3" t="n">
-        <v>81.79094321497428</v>
+        <v>81.79094321497587</v>
       </c>
       <c r="G3" t="n">
-        <v>106.59222681185</v>
+        <v>106.5922268118488</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.93890542723724</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="C4" t="n">
-        <v>41.32224937653498</v>
+        <v>41.322249376535</v>
       </c>
       <c r="D4" t="n">
-        <v>68.23681171545871</v>
+        <v>68.23681171545695</v>
       </c>
       <c r="E4" t="n">
-        <v>707.903488883062</v>
+        <v>707.9034888830637</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438686</v>
+        <v>100.2304947438702</v>
       </c>
       <c r="G4" t="n">
-        <v>130.6231620427914</v>
+        <v>130.62316204279</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>13.93890542723724</v>
+        <v>13.93890542723716</v>
       </c>
       <c r="K4" t="n">
-        <v>41.32224937653498</v>
+        <v>41.322249376535</v>
       </c>
       <c r="L4" t="n">
-        <v>68.23681171545871</v>
+        <v>68.23681171545695</v>
       </c>
       <c r="M4" t="n">
-        <v>707.903488883062</v>
+        <v>707.9034888830632</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438686</v>
+        <v>100.2304947438706</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427914</v>
+        <v>130.6231620427902</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>13.93890542723724</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="K4" t="n">
-        <v>41.32224937653498</v>
+        <v>41.322249376535</v>
       </c>
       <c r="L4" t="n">
-        <v>68.23681171545871</v>
+        <v>68.23681171545695</v>
       </c>
       <c r="M4" t="n">
-        <v>707.903488883062</v>
+        <v>707.9034888830637</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438686</v>
+        <v>100.2304947438702</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427914</v>
+        <v>130.62316204279</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>340.7441361934457</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>369.6529821719512</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>392.9371403144742</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>50.25939512250086</v>
+        <v>64.19830054973812</v>
       </c>
       <c r="S2" t="n">
         <v>177.9417458832737</v>
       </c>
       <c r="T2" t="n">
-        <v>211.7243324407595</v>
+        <v>217.1256745993586</v>
       </c>
       <c r="U2" t="n">
         <v>251.2365463408047</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>372.2990332288164</v>
       </c>
     </row>
     <row r="3">
@@ -27461,7 +27461,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>133.5061601374015</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27476,7 +27476,7 @@
         <v>105.1879384198378</v>
       </c>
       <c r="I3" t="n">
-        <v>64.2726906803115</v>
+        <v>64.27269068031151</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>54.85152518778424</v>
+        <v>54.85152518778425</v>
       </c>
       <c r="S3" t="n">
         <v>158.1290443401915</v>
       </c>
       <c r="T3" t="n">
-        <v>183.2845617573622</v>
+        <v>197.2234671845994</v>
       </c>
       <c r="U3" t="n">
-        <v>211.9544691209265</v>
+        <v>213.6159866478532</v>
       </c>
       <c r="V3" t="n">
-        <v>220.5231992491147</v>
+        <v>218.8616817221881</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>191.8340797762402</v>
+        <v>191.8340797762403</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>153.3079156713906</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.3792112354243</v>
       </c>
       <c r="H4" t="n">
-        <v>156.7879977408238</v>
+        <v>144.5106098405132</v>
       </c>
       <c r="I4" t="n">
-        <v>137.0529390090937</v>
+        <v>123.1140335818565</v>
       </c>
       <c r="J4" t="n">
-        <v>50.10717381813403</v>
+        <v>36.16826839089681</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.99589981290507</v>
+        <v>34.93480524014232</v>
       </c>
       <c r="R4" t="n">
         <v>149.7860719541821</v>
@@ -27591,19 +27591,19 @@
         <v>225.3316710844068</v>
       </c>
       <c r="U4" t="n">
-        <v>274.008272285833</v>
+        <v>286.2856601861436</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>272.5840929093538</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>204.6457479248575</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>326.6692152684896</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>351.6148909379392</v>
       </c>
       <c r="G5" t="n">
-        <v>365.0332955066154</v>
+        <v>358.4461658540058</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
       </c>
       <c r="I5" t="n">
-        <v>93.70742637337571</v>
+        <v>148.9685811771479</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>49.65101377519441</v>
       </c>
       <c r="S5" t="n">
-        <v>172.6645079492214</v>
+        <v>123.9904827980588</v>
       </c>
       <c r="T5" t="n">
         <v>216.1119122710508</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2180195592479</v>
+        <v>195.9568647554757</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>111.2720288460951</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>92.18391076086652</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>102.3839256516287</v>
       </c>
       <c r="F6" t="n">
-        <v>96.39518724222131</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.4898938890125</v>
@@ -27713,7 +27713,7 @@
         <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>4.745378475469174</v>
+        <v>60.0065332792414</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>47.15831191777808</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>100.5663383780076</v>
+        <v>154.3117799483953</v>
       </c>
       <c r="T6" t="n">
-        <v>196.7240278659264</v>
+        <v>141.4628730621541</v>
       </c>
       <c r="U6" t="n">
         <v>225.8852226550407</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>93.35431821444013</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2753302804353</v>
+        <v>112.014175476663</v>
       </c>
       <c r="H7" t="n">
         <v>100.6032468099677</v>
@@ -27795,7 +27795,7 @@
         <v>133.9289553808794</v>
       </c>
       <c r="J7" t="n">
-        <v>42.76279030041251</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>26.23619181829162</v>
       </c>
       <c r="R7" t="n">
-        <v>145.11520646895</v>
+        <v>139.2039716181999</v>
       </c>
       <c r="S7" t="n">
         <v>211.5447863772357</v>
@@ -27828,7 +27828,7 @@
         <v>224.8878160949084</v>
       </c>
       <c r="U7" t="n">
-        <v>237.6059688010725</v>
+        <v>286.2799939522351</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>170.4485005852649</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.3234985483226</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>231.185075101452</v>
+        <v>231.1850751014538</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>324.759043776934</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>289.8433500101611</v>
       </c>
       <c r="H8" t="n">
-        <v>230.8277528064716</v>
+        <v>319.3873994455085</v>
       </c>
       <c r="I8" t="n">
-        <v>134.8582070174803</v>
+        <v>134.8582070174806</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>26.6600069453592</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>40.82622235435524</v>
+        <v>164.3241888735864</v>
       </c>
       <c r="T8" t="n">
-        <v>214.5097291990336</v>
+        <v>91.01176267980443</v>
       </c>
       <c r="U8" t="n">
         <v>251.1887392289769</v>
       </c>
       <c r="V8" t="n">
-        <v>204.254291950904</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27935,22 +27935,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>23.94709904540781</v>
+        <v>23.94709904540957</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>21.5712458741547</v>
       </c>
       <c r="G9" t="n">
-        <v>27.5170555058408</v>
+        <v>136.2940644159794</v>
       </c>
       <c r="H9" t="n">
-        <v>102.099940072447</v>
+        <v>102.0999400724471</v>
       </c>
       <c r="I9" t="n">
-        <v>53.26415887875934</v>
+        <v>53.26415887875947</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>34.99970656577501</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>152.1900466103095</v>
+        <v>28.69208009108044</v>
       </c>
       <c r="T9" t="n">
-        <v>195.9346976654113</v>
+        <v>195.9346976654114</v>
       </c>
       <c r="U9" t="n">
-        <v>102.3743726178471</v>
+        <v>225.872339137078</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27995,7 +27995,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>82.27501868424653</v>
+        <v>131.9956828591157</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71.05497127179872</v>
+        <v>56.33401366270812</v>
       </c>
       <c r="C10" t="n">
-        <v>43.74885457939689</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>25.11750649898141</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>21.92308150370206</v>
       </c>
       <c r="G10" t="n">
-        <v>167.1111534285827</v>
+        <v>43.61318690935349</v>
       </c>
       <c r="H10" t="n">
         <v>154.4047201490867</v>
@@ -28032,7 +28032,7 @@
         <v>128.991709690621</v>
       </c>
       <c r="J10" t="n">
-        <v>31.1554868744332</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.48861925088832</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>137.7332182029228</v>
+        <v>137.7332182029229</v>
       </c>
       <c r="S10" t="n">
-        <v>208.6836316044953</v>
+        <v>208.6836316044954</v>
       </c>
       <c r="T10" t="n">
-        <v>100.6883666632163</v>
+        <v>224.1863331824473</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2710388512249</v>
+        <v>221.13813606641</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.61020235221398</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I23" t="n">
         <v>12.38037836605497</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221389</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I29" t="n">
         <v>12.38037836605497</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221399</v>
       </c>
     </row>
     <row r="32">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605497</v>
+        <v>12.3803783660569</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221392</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="38">
@@ -30289,7 +30289,7 @@
         <v>31.61020235221396</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221396</v>
+        <v>31.61020235221446</v>
       </c>
     </row>
     <row r="39">
@@ -30417,7 +30417,7 @@
         <v>31.61020235221396</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221343</v>
+        <v>31.61020235221396</v>
       </c>
       <c r="P40" t="n">
         <v>31.61020235221396</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I41" t="n">
         <v>12.38037836605497</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221446</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I44" t="n">
         <v>12.38037836605497</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221387</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
   </sheetData>
@@ -31045,7 +31045,7 @@
         <v>13.96734537018356</v>
       </c>
       <c r="I2" t="n">
-        <v>52.5791365686808</v>
+        <v>52.57913656868079</v>
       </c>
       <c r="J2" t="n">
         <v>115.7535436702178</v>
@@ -31054,16 +31054,16 @@
         <v>173.4845559509326</v>
       </c>
       <c r="L2" t="n">
-        <v>215.2229322109356</v>
+        <v>215.2229322109355</v>
       </c>
       <c r="M2" t="n">
-        <v>239.4769811040885</v>
+        <v>239.4769811040884</v>
       </c>
       <c r="N2" t="n">
-        <v>243.3519690238282</v>
+        <v>243.3519690238281</v>
       </c>
       <c r="O2" t="n">
-        <v>229.7903636997942</v>
+        <v>229.7903636997941</v>
       </c>
       <c r="P2" t="n">
         <v>196.1207590298167</v>
@@ -31072,13 +31072,13 @@
         <v>147.2785223819759</v>
       </c>
       <c r="R2" t="n">
-        <v>85.67081739141157</v>
+        <v>85.67081739141156</v>
       </c>
       <c r="S2" t="n">
-        <v>31.07832370297163</v>
+        <v>31.07832370297162</v>
       </c>
       <c r="T2" t="n">
-        <v>5.970174964772715</v>
+        <v>5.970174964772714</v>
       </c>
       <c r="U2" t="n">
         <v>0.1091065670318257</v>
@@ -31118,37 +31118,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7297144987275942</v>
+        <v>0.7297144987275941</v>
       </c>
       <c r="H3" t="n">
-        <v>7.047505816658608</v>
+        <v>7.047505816658607</v>
       </c>
       <c r="I3" t="n">
-        <v>25.12394217110358</v>
+        <v>25.12394217110357</v>
       </c>
       <c r="J3" t="n">
-        <v>68.94201761882066</v>
+        <v>68.94201761882064</v>
       </c>
       <c r="K3" t="n">
-        <v>117.8328890335695</v>
+        <v>117.8328890335694</v>
       </c>
       <c r="L3" t="n">
         <v>152.4932852071114</v>
       </c>
       <c r="M3" t="n">
-        <v>150.1406944304191</v>
+        <v>156.0729393492555</v>
       </c>
       <c r="N3" t="n">
-        <v>145.2806175105706</v>
+        <v>144.7174294125003</v>
       </c>
       <c r="O3" t="n">
         <v>156.5351498716817</v>
       </c>
       <c r="P3" t="n">
-        <v>139.3434642350965</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>93.14741566213992</v>
+        <v>93.14741566213991</v>
       </c>
       <c r="R3" t="n">
         <v>45.30630896485889</v>
@@ -31157,7 +31157,7 @@
         <v>13.55412676364631</v>
       </c>
       <c r="T3" t="n">
-        <v>2.941261510222188</v>
+        <v>2.941261510222187</v>
       </c>
       <c r="U3" t="n">
         <v>0.04800753281102595</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6117681230344943</v>
+        <v>0.6117681230344942</v>
       </c>
       <c r="H4" t="n">
-        <v>5.439174766615781</v>
+        <v>5.43917476661578</v>
       </c>
       <c r="I4" t="n">
-        <v>18.39753591816462</v>
+        <v>18.39753591816461</v>
       </c>
       <c r="J4" t="n">
-        <v>43.25200629853875</v>
+        <v>43.25200629853874</v>
       </c>
       <c r="K4" t="n">
-        <v>71.07633283982578</v>
+        <v>71.07633283982577</v>
       </c>
       <c r="L4" t="n">
-        <v>90.95323531005566</v>
+        <v>90.95323531005563</v>
       </c>
       <c r="M4" t="n">
-        <v>95.89743404985259</v>
+        <v>95.89743404985256</v>
       </c>
       <c r="N4" t="n">
-        <v>93.61720740945137</v>
+        <v>93.61720740945135</v>
       </c>
       <c r="O4" t="n">
-        <v>86.47064342673019</v>
+        <v>86.47064342673018</v>
       </c>
       <c r="P4" t="n">
-        <v>73.99057371682645</v>
+        <v>73.99057371682643</v>
       </c>
       <c r="Q4" t="n">
-        <v>51.22723801155207</v>
+        <v>51.22723801155206</v>
       </c>
       <c r="R4" t="n">
-        <v>27.50731942298735</v>
+        <v>27.50731942298734</v>
       </c>
       <c r="S4" t="n">
-        <v>10.66144992597387</v>
+        <v>10.66144992597386</v>
       </c>
       <c r="T4" t="n">
-        <v>2.613918343874657</v>
+        <v>2.613918343874656</v>
       </c>
       <c r="U4" t="n">
         <v>0.03336917034733609</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.961420985744777</v>
+        <v>1.96142098574477</v>
       </c>
       <c r="H8" t="n">
-        <v>20.0874026702587</v>
+        <v>20.08740267025863</v>
       </c>
       <c r="I8" t="n">
-        <v>75.6176825529256</v>
+        <v>75.61768255292532</v>
       </c>
       <c r="J8" t="n">
-        <v>166.473154388856</v>
+        <v>166.4731543888553</v>
       </c>
       <c r="K8" t="n">
-        <v>249.5001047154324</v>
+        <v>249.5001047154315</v>
       </c>
       <c r="L8" t="n">
-        <v>309.5269422079192</v>
+        <v>309.526942207918</v>
       </c>
       <c r="M8" t="n">
-        <v>344.4083626631579</v>
+        <v>344.4083626631565</v>
       </c>
       <c r="N8" t="n">
-        <v>349.9812500389053</v>
+        <v>349.9812500389039</v>
       </c>
       <c r="O8" t="n">
-        <v>330.4773701119056</v>
+        <v>330.4773701119043</v>
       </c>
       <c r="P8" t="n">
-        <v>282.0547895263314</v>
+        <v>282.0547895263303</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.8114004743465</v>
+        <v>211.8114004743456</v>
       </c>
       <c r="R8" t="n">
-        <v>123.2091109957905</v>
+        <v>123.20911099579</v>
       </c>
       <c r="S8" t="n">
-        <v>44.69588071265916</v>
+        <v>44.69588071265898</v>
       </c>
       <c r="T8" t="n">
-        <v>8.586120365097766</v>
+        <v>8.586120365097734</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1569136788595822</v>
+        <v>0.1569136788595815</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.049452747231275</v>
+        <v>1.049452747231271</v>
       </c>
       <c r="H9" t="n">
-        <v>10.13550416404942</v>
+        <v>10.13550416404938</v>
       </c>
       <c r="I9" t="n">
-        <v>36.13247397265574</v>
+        <v>36.1324739726556</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15027029872323</v>
+        <v>99.15027029872284</v>
       </c>
       <c r="K9" t="n">
-        <v>169.4636043632186</v>
+        <v>169.463604363218</v>
       </c>
       <c r="L9" t="n">
-        <v>175.4180311959886</v>
+        <v>227.8647291740529</v>
       </c>
       <c r="M9" t="n">
-        <v>265.6320004412493</v>
+        <v>265.6320004412475</v>
       </c>
       <c r="N9" t="n">
-        <v>254.8396786025642</v>
+        <v>202.3929806244972</v>
       </c>
       <c r="O9" t="n">
-        <v>249.6915051712937</v>
+        <v>249.6915051712927</v>
       </c>
       <c r="P9" t="n">
-        <v>200.399446091909</v>
+        <v>200.3994460919082</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.9617226114869</v>
+        <v>133.9617226114864</v>
       </c>
       <c r="R9" t="n">
-        <v>65.15812758686812</v>
+        <v>65.15812758686788</v>
       </c>
       <c r="S9" t="n">
-        <v>19.49312449352827</v>
+        <v>19.4931244935282</v>
       </c>
       <c r="T9" t="n">
-        <v>4.230031029410268</v>
+        <v>4.230031029410252</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06904294389679443</v>
+        <v>0.06904294389679416</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8798259298760902</v>
+        <v>0.8798259298760869</v>
       </c>
       <c r="H10" t="n">
-        <v>7.822452358352881</v>
+        <v>7.822452358352851</v>
       </c>
       <c r="I10" t="n">
-        <v>26.45876523663734</v>
+        <v>26.45876523663724</v>
       </c>
       <c r="J10" t="n">
-        <v>62.20369324223957</v>
+        <v>62.20369324223934</v>
       </c>
       <c r="K10" t="n">
-        <v>102.219776216513</v>
+        <v>102.2197762165126</v>
       </c>
       <c r="L10" t="n">
-        <v>130.8061205199417</v>
+        <v>130.8061205199411</v>
       </c>
       <c r="M10" t="n">
-        <v>137.9167137168493</v>
+        <v>137.9167137168488</v>
       </c>
       <c r="N10" t="n">
-        <v>134.6373625236749</v>
+        <v>134.6373625236744</v>
       </c>
       <c r="O10" t="n">
-        <v>124.3593959792132</v>
+        <v>124.3593959792128</v>
       </c>
       <c r="P10" t="n">
-        <v>106.4109470097409</v>
+        <v>106.4109470097405</v>
       </c>
       <c r="Q10" t="n">
-        <v>73.67342400080607</v>
+        <v>73.67342400080578</v>
       </c>
       <c r="R10" t="n">
-        <v>39.56017317424674</v>
+        <v>39.56017317424659</v>
       </c>
       <c r="S10" t="n">
-        <v>15.33296643247695</v>
+        <v>15.33296643247689</v>
       </c>
       <c r="T10" t="n">
-        <v>3.759256245834203</v>
+        <v>3.759256245834188</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04799050526596861</v>
+        <v>0.04799050526596843</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.709819673601094</v>
+        <v>4.709819673601099</v>
       </c>
       <c r="H14" t="n">
-        <v>48.23444073226721</v>
+        <v>48.23444073226727</v>
       </c>
       <c r="I14" t="n">
-        <v>181.5753229665063</v>
+        <v>181.5753229665065</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223011</v>
+        <v>399.7400575223016</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1067243058355</v>
+        <v>599.1067243058362</v>
       </c>
       <c r="L14" t="n">
-        <v>743.2448681418051</v>
+        <v>743.244868141806</v>
       </c>
       <c r="M14" t="n">
-        <v>827.0031237622086</v>
+        <v>827.0031237622095</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098277</v>
+        <v>840.3848989098287</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304568</v>
+        <v>793.5516295304577</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384297</v>
+        <v>677.2779563384305</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6075392775904</v>
+        <v>508.607539277591</v>
       </c>
       <c r="R14" t="n">
-        <v>295.853210071845</v>
+        <v>295.8532100718453</v>
       </c>
       <c r="S14" t="n">
-        <v>107.325015812185</v>
+        <v>107.3250158121851</v>
       </c>
       <c r="T14" t="n">
-        <v>20.6172356211888</v>
+        <v>20.61723562118882</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3767855738880874</v>
+        <v>0.3767855738880878</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.519975686681945</v>
+        <v>2.519975686681948</v>
       </c>
       <c r="H15" t="n">
-        <v>24.33765992137563</v>
+        <v>24.33765992137566</v>
       </c>
       <c r="I15" t="n">
-        <v>86.76232079146173</v>
+        <v>86.76232079146183</v>
       </c>
       <c r="J15" t="n">
-        <v>238.0824397667359</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>406.9208107744263</v>
+        <v>234.3875890028887</v>
       </c>
       <c r="L15" t="n">
-        <v>547.1552472332883</v>
+        <v>547.1552472332888</v>
       </c>
       <c r="M15" t="n">
-        <v>343.946291894757</v>
+        <v>638.5043658755094</v>
       </c>
       <c r="N15" t="n">
-        <v>655.403676511196</v>
+        <v>655.4036765111967</v>
       </c>
       <c r="O15" t="n">
-        <v>599.5663205062959</v>
+        <v>599.5663205062967</v>
       </c>
       <c r="P15" t="n">
-        <v>481.2048309068358</v>
+        <v>481.2048309068363</v>
       </c>
       <c r="Q15" t="n">
-        <v>321.6726858999621</v>
+        <v>321.6726858999624</v>
       </c>
       <c r="R15" t="n">
-        <v>156.4595430731124</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.80744312762295</v>
+        <v>46.807443127623</v>
       </c>
       <c r="T15" t="n">
-        <v>10.15727042131889</v>
+        <v>10.1572704213189</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1657878741238123</v>
+        <v>0.1657878741238125</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.112662964244426</v>
+        <v>2.112662964244429</v>
       </c>
       <c r="H16" t="n">
-        <v>18.78349435482773</v>
+        <v>18.78349435482775</v>
       </c>
       <c r="I16" t="n">
-        <v>63.53353714291422</v>
+        <v>63.53353714291429</v>
       </c>
       <c r="J16" t="n">
-        <v>149.3652715720809</v>
+        <v>149.3652715720811</v>
       </c>
       <c r="K16" t="n">
-        <v>245.4530243913069</v>
+        <v>245.4530243913072</v>
       </c>
       <c r="L16" t="n">
-        <v>314.0953647023032</v>
+        <v>314.0953647023036</v>
       </c>
       <c r="M16" t="n">
-        <v>331.1695226587876</v>
+        <v>331.169522658788</v>
       </c>
       <c r="N16" t="n">
-        <v>323.2950516102405</v>
+        <v>323.2950516102408</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6153069824759</v>
+        <v>298.6153069824763</v>
       </c>
       <c r="P16" t="n">
-        <v>255.5169825118894</v>
+        <v>255.5169825118897</v>
       </c>
       <c r="Q16" t="n">
-        <v>176.9067142150492</v>
+        <v>176.9067142150494</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320845</v>
+        <v>94.99300928320855</v>
       </c>
       <c r="S16" t="n">
-        <v>36.81795365869603</v>
+        <v>36.81795365869608</v>
       </c>
       <c r="T16" t="n">
-        <v>9.026832665408</v>
+        <v>9.02683266540801</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1152361616860597</v>
+        <v>0.1152361616860599</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I17" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L17" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R17" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S17" t="n">
         <v>117.0897208110796</v>
@@ -32266,7 +32266,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H18" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115855</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K18" t="n">
-        <v>443.943509024727</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L18" t="n">
-        <v>502.1985563837565</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>696.5971294879669</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P18" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32391,10 +32391,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L19" t="n">
         <v>342.6725659692048</v>
@@ -32406,22 +32406,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P19" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R19" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32503,7 +32503,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>277.0331173735789</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,10 +32628,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
         <v>342.6725659692048</v>
@@ -32643,22 +32643,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32795,22 +32795,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>591.0665301174799</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486996</v>
@@ -33035,19 +33035,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>548.1235910649156</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P27" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33269,22 +33269,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>229.1240985065463</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P30" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>51.06610426486996</v>
@@ -33497,28 +33497,28 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
         <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N33" t="n">
-        <v>652.9071816558916</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,7 +33734,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>259.7437903115855</v>
+        <v>208.297560928827</v>
       </c>
       <c r="K36" t="n">
         <v>443.943509024727</v>
@@ -33749,7 +33749,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>577.6550422513128</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33758,7 +33758,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33983,19 +33983,19 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
-        <v>247.5609517346425</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>391.712654391959</v>
       </c>
       <c r="P39" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R39" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34147,7 +34147,7 @@
         <v>865.7509905565677</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829633</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q41" t="n">
         <v>554.8819566972011</v>
@@ -34208,7 +34208,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
         <v>443.943509024727</v>
@@ -34220,10 +34220,10 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>380.4671153795611</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>654.1164009578283</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P42" t="n">
         <v>524.986079689235</v>
@@ -34232,7 +34232,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34378,7 +34378,7 @@
         <v>902.2459874654296</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117591</v>
+        <v>916.84527081176</v>
       </c>
       <c r="O44" t="n">
         <v>865.7509905565677</v>
@@ -34451,7 +34451,7 @@
         <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>430.0264422644108</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
         <v>696.5971294879669</v>
@@ -34460,16 +34460,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P45" t="n">
         <v>524.986079689235</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34702,22 +34702,22 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.244969452351352</v>
       </c>
       <c r="M2" t="n">
-        <v>13.93890542723724</v>
+        <v>9.13074787681569</v>
       </c>
       <c r="N2" t="n">
-        <v>13.93890542723724</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="O2" t="n">
-        <v>13.93890542723724</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="Q2" t="n">
-        <v>13.37571732916705</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>13.93890542723724</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="M3" t="n">
-        <v>8.006660508400806</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="N3" t="n">
-        <v>13.93890542723724</v>
+        <v>13.37571732916704</v>
       </c>
       <c r="O3" t="n">
-        <v>13.93890542723724</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="P3" t="n">
-        <v>5.369056820766247</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>13.93890542723724</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="M4" t="n">
-        <v>13.37571732916705</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>13.93890542723724</v>
+        <v>13.37571732916704</v>
       </c>
       <c r="O4" t="n">
-        <v>13.93890542723724</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>13.93890542723723</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>55.26115480377223</v>
       </c>
       <c r="O5" t="n">
+        <v>42.49219790156762</v>
+      </c>
+      <c r="P5" t="n">
         <v>55.26115480377223</v>
-      </c>
-      <c r="P5" t="n">
-        <v>42.49219790156762</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>55.26115480377223</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>55.26115480377223</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>55.26115480377223</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>53.0283808723067</v>
       </c>
       <c r="O7" t="n">
         <v>55.26115480377223</v>
       </c>
       <c r="P7" t="n">
-        <v>53.0283808723067</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>29.41025367045188</v>
+        <v>29.41025367045091</v>
       </c>
       <c r="L8" t="n">
-        <v>73.76052723793197</v>
+        <v>73.76052723793077</v>
       </c>
       <c r="M8" t="n">
-        <v>114.0621294358852</v>
+        <v>114.0621294358838</v>
       </c>
       <c r="N8" t="n">
-        <v>120.5681864423144</v>
+        <v>120.568186442313</v>
       </c>
       <c r="O8" t="n">
-        <v>100.3791586902189</v>
+        <v>100.3791586902176</v>
       </c>
       <c r="P8" t="n">
-        <v>50.82179377106183</v>
+        <v>50.82179377106075</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>31.62216538885963</v>
+        <v>31.62216538885897</v>
       </c>
       <c r="L9" t="n">
-        <v>36.86365141611448</v>
+        <v>89.31034939417873</v>
       </c>
       <c r="M9" t="n">
-        <v>123.4979665192309</v>
+        <v>123.4979665192292</v>
       </c>
       <c r="N9" t="n">
-        <v>123.4979665192309</v>
+        <v>71.05126854116385</v>
       </c>
       <c r="O9" t="n">
-        <v>107.0952607268493</v>
+        <v>107.0952607268483</v>
       </c>
       <c r="P9" t="n">
-        <v>66.42503867757873</v>
+        <v>66.42503867757796</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>79.95028439063016</v>
+        <v>79.95028439062976</v>
       </c>
       <c r="L10" t="n">
-        <v>123.4979665192309</v>
+        <v>123.4979665192292</v>
       </c>
       <c r="M10" t="n">
-        <v>123.4979665192309</v>
+        <v>58.36632554413485</v>
       </c>
       <c r="N10" t="n">
-        <v>6.951818058441688</v>
+        <v>123.4979665192292</v>
       </c>
       <c r="O10" t="n">
-        <v>51.41450748569581</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>103.6895062746344</v>
+        <v>103.689506274634</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.3942385378933</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.6941529956148</v>
+        <v>218.6941529956153</v>
       </c>
       <c r="K14" t="n">
-        <v>379.016873260855</v>
+        <v>379.0168732608557</v>
       </c>
       <c r="L14" t="n">
-        <v>507.4784531718179</v>
+        <v>507.4784531718188</v>
       </c>
       <c r="M14" t="n">
-        <v>596.6568905349359</v>
+        <v>596.6568905349368</v>
       </c>
       <c r="N14" t="n">
-        <v>610.9718353132369</v>
+        <v>610.9718353132378</v>
       </c>
       <c r="O14" t="n">
-        <v>563.4534181087701</v>
+        <v>563.453418108771</v>
       </c>
       <c r="P14" t="n">
-        <v>446.0449605831602</v>
+        <v>446.044960583161</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.3018494031409</v>
+        <v>286.3018494031415</v>
       </c>
       <c r="R14" t="n">
-        <v>80.26767225771283</v>
+        <v>80.26767225771317</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>111.2448131000693</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>269.0793718000673</v>
+        <v>96.54615002852969</v>
       </c>
       <c r="L15" t="n">
-        <v>408.6008674534141</v>
+        <v>408.6008674534147</v>
       </c>
       <c r="M15" t="n">
-        <v>201.8122579727387</v>
+        <v>496.3703319534911</v>
       </c>
       <c r="N15" t="n">
-        <v>524.0619644278627</v>
+        <v>524.0619644278635</v>
       </c>
       <c r="O15" t="n">
-        <v>456.9700760618515</v>
+        <v>456.9700760618523</v>
       </c>
       <c r="P15" t="n">
-        <v>347.2304234925055</v>
+        <v>347.230423492506</v>
       </c>
       <c r="Q15" t="n">
-        <v>181.6909118139405</v>
+        <v>181.6909118139409</v>
       </c>
       <c r="R15" t="n">
-        <v>10.78003910914848</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.00609145540815</v>
+        <v>56.00609145540832</v>
       </c>
       <c r="K16" t="n">
-        <v>223.1835325654241</v>
+        <v>223.1835325654243</v>
       </c>
       <c r="L16" t="n">
-        <v>341.6853899626193</v>
+        <v>341.6853899626198</v>
       </c>
       <c r="M16" t="n">
-        <v>370.7533996206282</v>
+        <v>370.7533996206286</v>
       </c>
       <c r="N16" t="n">
-        <v>367.4272239894691</v>
+        <v>367.4272239894694</v>
       </c>
       <c r="O16" t="n">
-        <v>323.2004348965156</v>
+        <v>323.200434896516</v>
       </c>
       <c r="P16" t="n">
-        <v>252.7955417767829</v>
+        <v>252.7955417767832</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335481</v>
+        <v>90.74467096335501</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P17" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R17" t="n">
         <v>107.1851555440239</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.9061636449188</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K18" t="n">
-        <v>306.102070050368</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L18" t="n">
-        <v>363.6441766038823</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
         <v>107.1851555440239</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
-        <v>139.1916783992199</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O22" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
-        <v>307.653334055306</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>459.7248180341467</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36525,7 +36525,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
         <v>381.9794231908712</v>
@@ -36604,7 +36604,7 @@
         <v>671.8997542381569</v>
       </c>
       <c r="N26" t="n">
-        <v>687.4322072151681</v>
+        <v>687.432207215169</v>
       </c>
       <c r="O26" t="n">
         <v>635.6527791348809</v>
@@ -36683,19 +36683,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>416.7818789815822</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
         <v>401.8727935817349</v>
@@ -36917,22 +36917,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
-        <v>86.99006458452799</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,19 +36990,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L31" t="n">
         <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
         <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
-        <v>521.5654695725583</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>132.9061636449188</v>
+        <v>81.45993426216029</v>
       </c>
       <c r="K36" t="n">
         <v>306.102070050368</v>
@@ -37397,7 +37397,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>435.0587978068684</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L37" t="n">
         <v>401.8727935817349</v>
@@ -37631,19 +37631,19 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>116.2192396513092</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>249.1164099475146</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R39" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,10 +37710,10 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908707</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P40" t="n">
         <v>307.6533340553059</v>
@@ -37795,13 +37795,13 @@
         <v>635.6527791348809</v>
       </c>
       <c r="P41" t="n">
-        <v>507.6654448276938</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q41" t="n">
         <v>332.5762668227516</v>
       </c>
       <c r="R41" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440256</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
         <v>306.102070050368</v>
@@ -37868,10 +37868,10 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>249.1254032962278</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>511.5201565133839</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P42" t="n">
         <v>391.0116722749048</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O43" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q43" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>671.8997542381569</v>
       </c>
       <c r="N44" t="n">
-        <v>687.4322072151681</v>
+        <v>687.432207215169</v>
       </c>
       <c r="O44" t="n">
         <v>635.6527791348809</v>
@@ -38099,7 +38099,7 @@
         <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>291.4720624845367</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
@@ -38108,16 +38108,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P45" t="n">
         <v>391.0116722749048</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
         <v>401.8727935817348</v>
@@ -38184,16 +38184,16 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O46" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q46" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
